--- a/Data/RE potential_Prepared by Shayan Naderi.xlsx
+++ b/Data/RE potential_Prepared by Shayan Naderi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\PICs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C7C52-2691-43BE-AFDE-60EA8DBE3FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818CCCDE-D4CA-49F8-AD42-3E6100870D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="444" activeTab="1" xr2:uid="{49DD3107-0B2E-4CE4-9F57-56585514062A}"/>
   </bookViews>
@@ -2245,7 +2245,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.1996438464582511</c:v>
+                  <c:v>4.3351162286020655</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5148757060114395</c:v>
@@ -2269,10 +2269,10 @@
                   <c:v>0.47010280601305071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43337211197047265</c:v>
+                  <c:v>0.47820370976052157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51299014800075571</c:v>
+                  <c:v>0.48092826375070835</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.45229178861808528</c:v>
@@ -2287,7 +2287,7 @@
                   <c:v>6.3867402044231539E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26619719462766983</c:v>
+                  <c:v>0.28521127995821771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,7 +2657,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.7997625643055004</c:v>
+                  <c:v>2.89007748573471</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0099171373409597</c:v>
@@ -2681,10 +2681,10 @@
                   <c:v>0.31340187067536712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28891474131364842</c:v>
+                  <c:v>0.31880247317368104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34199343200050369</c:v>
+                  <c:v>0.32061884250047223</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.30152785907872348</c:v>
@@ -2699,7 +2699,7 @@
                   <c:v>4.2578268029487686E-2</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00000">
-                  <c:v>0.17746479641844659</c:v>
+                  <c:v>0.1901408533054785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2786,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.1996438464582511</c:v>
+                  <c:v>4.3351162286020655</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5148757060114395</c:v>
@@ -2810,10 +2810,10 @@
                   <c:v>0.47010280601305071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43337211197047265</c:v>
+                  <c:v>0.47820370976052157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51299014800075571</c:v>
+                  <c:v>0.48092826375070835</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.45229178861808528</c:v>
@@ -2828,7 +2828,7 @@
                   <c:v>6.3867402044231539E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26619719462766983</c:v>
+                  <c:v>0.28521127995821771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,7 +3223,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>70.05540166204986</c:v>
+                  <c:v>72.315253328567607</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25.988416016116844</c:v>
@@ -3247,10 +3247,10 @@
                   <c:v>52.653739612188367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3223.1301939058167</c:v>
+                  <c:v>3556.5574553443498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>402.79224376731304</c:v>
+                  <c:v>377.61772853185596</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>76.110421243671794</c:v>
@@ -3265,7 +3265,7 @@
                   <c:v>3248.21527502968</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>349.42936288088646</c:v>
+                  <c:v>374.38860308666409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,7 +7132,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>940.72022160664812</c:v>
+                  <c:v>971.06603520686258</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>94.812389826240235</c:v>
@@ -7156,10 +7156,10 @@
                   <c:v>337.06371191135736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7919.8753462603872</c:v>
+                  <c:v>8739.1727958735319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1963.2132963988918</c:v>
+                  <c:v>1840.512465373961</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>317.50883560989587</c:v>
@@ -18001,7 +18001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19324,7 +19324,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="93">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F22" s="93">
         <v>1.76</v>
@@ -19348,10 +19348,10 @@
         <v>1.5</v>
       </c>
       <c r="M22" s="93">
+        <v>1.45</v>
+      </c>
+      <c r="N22" s="93">
         <v>1.6</v>
-      </c>
-      <c r="N22" s="93">
-        <v>1.5</v>
       </c>
       <c r="O22" s="93">
         <v>1.45</v>
@@ -19366,7 +19366,7 @@
         <v>1.4</v>
       </c>
       <c r="S22" s="93">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T22" s="93">
         <v>1.6</v>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="E23" s="13">
         <f>E10*1.2/E22</f>
-        <v>70.05540166204986</v>
+        <v>72.315253328567607</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" ref="F23:V23" si="7">F10*1.2/F22</f>
@@ -19419,11 +19419,11 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" si="7"/>
-        <v>3223.1301939058167</v>
+        <v>3556.5574553443498</v>
       </c>
       <c r="N23" s="13">
         <f t="shared" si="7"/>
-        <v>402.79224376731304</v>
+        <v>377.61772853185596</v>
       </c>
       <c r="O23" s="13">
         <f t="shared" si="7"/>
@@ -19443,7 +19443,7 @@
       </c>
       <c r="S23" s="13">
         <f t="shared" si="7"/>
-        <v>349.42936288088646</v>
+        <v>374.38860308666409</v>
       </c>
       <c r="T23" s="13">
         <f t="shared" si="7"/>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="E24" s="13">
         <f t="shared" ref="E24:S24" si="8">E6*1.2/E22</f>
-        <v>940.72022160664812</v>
+        <v>971.06603520686258</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="8"/>
@@ -19499,11 +19499,11 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" si="8"/>
-        <v>7919.8753462603872</v>
+        <v>8739.1727958735319</v>
       </c>
       <c r="N24" s="13">
         <f t="shared" si="8"/>
-        <v>1963.2132963988918</v>
+        <v>1840.512465373961</v>
       </c>
       <c r="O24" s="13">
         <f t="shared" si="8"/>
@@ -19523,7 +19523,7 @@
       </c>
       <c r="S24" s="13">
         <f t="shared" si="8"/>
-        <v>4864.4875346260387</v>
+        <v>5211.9509299564706</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="13">
@@ -19542,7 +19542,7 @@
       </c>
       <c r="E25" s="13">
         <f>IF(E24&lt;5000,E24,0)</f>
-        <v>940.72022160664812</v>
+        <v>971.06603520686258</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" ref="F25:W25" si="9">IF(F24&lt;5000,F24,0)</f>
@@ -19578,7 +19578,7 @@
       </c>
       <c r="N25" s="13">
         <f t="shared" si="9"/>
-        <v>1963.2132963988918</v>
+        <v>1840.512465373961</v>
       </c>
       <c r="O25" s="13">
         <f t="shared" si="9"/>
@@ -19598,7 +19598,7 @@
       </c>
       <c r="S25" s="13">
         <f t="shared" si="9"/>
-        <v>4864.4875346260387</v>
+        <v>0</v>
       </c>
       <c r="T25" s="13">
         <f t="shared" si="9"/>
@@ -19658,7 +19658,7 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" si="10"/>
-        <v>7919.8753462603872</v>
+        <v>8739.1727958735319</v>
       </c>
       <c r="N26" s="13">
         <f t="shared" si="10"/>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="S26" s="13">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5211.9509299564706</v>
       </c>
       <c r="T26" s="13">
         <f t="shared" si="10"/>
@@ -19710,7 +19710,7 @@
       </c>
       <c r="E27" s="50">
         <f t="shared" ref="E27:Q27" si="11">E24/150</f>
-        <v>6.271468144044321</v>
+        <v>6.4737735680457504</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="11"/>
@@ -19742,11 +19742,11 @@
       </c>
       <c r="M27" s="50">
         <f t="shared" si="11"/>
-        <v>52.79916897506925</v>
+        <v>58.261151972490211</v>
       </c>
       <c r="N27" s="50">
         <f t="shared" si="11"/>
-        <v>13.088088642659278</v>
+        <v>12.270083102493073</v>
       </c>
       <c r="O27" s="50">
         <f t="shared" si="11"/>
@@ -19766,7 +19766,7 @@
       </c>
       <c r="S27" s="50">
         <f>S24/150</f>
-        <v>32.429916897506928</v>
+        <v>34.746339533043141</v>
       </c>
       <c r="T27" s="50"/>
       <c r="U27" s="50">
@@ -19785,7 +19785,7 @@
       </c>
       <c r="E28" s="50">
         <f>E24/100</f>
-        <v>9.4072022160664819</v>
+        <v>9.7106603520686257</v>
       </c>
       <c r="F28" s="50">
         <f t="shared" ref="F28:U28" si="12">F24/100</f>
@@ -19817,11 +19817,11 @@
       </c>
       <c r="M28" s="50">
         <f t="shared" si="12"/>
-        <v>79.198753462603875</v>
+        <v>87.391727958735316</v>
       </c>
       <c r="N28" s="50">
         <f t="shared" si="12"/>
-        <v>19.632132963988919</v>
+        <v>18.405124653739609</v>
       </c>
       <c r="O28" s="50">
         <f t="shared" si="12"/>
@@ -19841,7 +19841,7 @@
       </c>
       <c r="S28" s="50">
         <f t="shared" si="12"/>
-        <v>48.644875346260385</v>
+        <v>52.119509299564704</v>
       </c>
       <c r="T28" s="50">
         <f t="shared" si="12"/>
@@ -19864,7 +19864,7 @@
       </c>
       <c r="E29" s="20">
         <f t="shared" ref="E29:S29" si="13">E27*100/E12</f>
-        <v>2.7997625643055004</v>
+        <v>2.89007748573471</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" si="13"/>
@@ -19896,11 +19896,11 @@
       </c>
       <c r="M29" s="20">
         <f t="shared" si="13"/>
-        <v>0.28891474131364842</v>
+        <v>0.31880247317368104</v>
       </c>
       <c r="N29" s="20">
         <f t="shared" si="13"/>
-        <v>0.34199343200050369</v>
+        <v>0.32061884250047223</v>
       </c>
       <c r="O29" s="20">
         <f t="shared" si="13"/>
@@ -19920,7 +19920,7 @@
       </c>
       <c r="S29" s="71">
         <f t="shared" si="13"/>
-        <v>0.17746479641844659</v>
+        <v>0.1901408533054785</v>
       </c>
       <c r="T29" s="16"/>
       <c r="U29" s="16">
@@ -19938,7 +19938,7 @@
       <c r="C30" s="90"/>
       <c r="E30" s="20">
         <f t="shared" ref="E30:S30" si="14">E28*100/E12</f>
-        <v>4.1996438464582511</v>
+        <v>4.3351162286020655</v>
       </c>
       <c r="F30" s="20">
         <f t="shared" si="14"/>
@@ -19970,11 +19970,11 @@
       </c>
       <c r="M30" s="20">
         <f t="shared" si="14"/>
-        <v>0.43337211197047265</v>
+        <v>0.47820370976052157</v>
       </c>
       <c r="N30" s="20">
         <f t="shared" si="14"/>
-        <v>0.51299014800075571</v>
+        <v>0.48092826375070835</v>
       </c>
       <c r="O30" s="20">
         <f t="shared" si="14"/>
@@ -19994,7 +19994,7 @@
       </c>
       <c r="S30" s="20">
         <f t="shared" si="14"/>
-        <v>0.26619719462766983</v>
+        <v>0.28521127995821771</v>
       </c>
       <c r="T30" s="91"/>
       <c r="U30" s="91"/>

--- a/Data/RE potential_Prepared by Shayan Naderi.xlsx
+++ b/Data/RE potential_Prepared by Shayan Naderi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\PICs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818CCCDE-D4CA-49F8-AD42-3E6100870D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91093CA8-CA6D-4736-8D96-CED9E480B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="444" activeTab="1" xr2:uid="{49DD3107-0B2E-4CE4-9F57-56585514062A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="444" activeTab="1" xr2:uid="{49DD3107-0B2E-4CE4-9F57-56585514062A}"/>
   </bookViews>
   <sheets>
     <sheet name="Compact" sheetId="3" r:id="rId1"/>
@@ -2208,110 +2208,6 @@
         <c:axId val="96842687"/>
         <c:axId val="96851423"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Required PV for final demand</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$E$30:$S$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>4.3351162286020655</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5148757060114395</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7572761175232766E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0580333526041237</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31994489971784817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74827456688107408</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.6885811892321878E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47010280601305071</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47820370976052157</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.48092826375070835</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.45229178861808528</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9404279930595725E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.51992329000639248</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.3867402044231539E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28521127995821771</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-3472-425E-985B-F72D1256667E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="96842687"/>
-        <c:axId val="96851423"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="96842687"/>
         <c:scaling>
@@ -17999,9 +17895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28CA3A0-E7EB-408B-ADC3-88192BF50B22}">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
